--- a/database/FeedFactoryInventories.xlsx
+++ b/database/FeedFactoryInventories.xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="feedfactory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="DeepWeekTS">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
     <definedName name="dfkgl_db">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
@@ -32,17 +24,12 @@
     <definedName name="jjlr_hlj">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
     <definedName name="jjlr_hn">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
     <definedName name="jjlr_jl">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
-    <definedName name="NorthCarryout">OFFSET([1]NSPort!$V$2,COUNT([1]NSPort!$A:$A),0,-COUNT([1]NSPort!$A:$A),1)</definedName>
-    <definedName name="NorthCarryoutChange">OFFSET([1]NSPort!$W$2,COUNT([1]NSPort!$A:$A),0,-COUNT([1]NSPort!$A:$A),1)</definedName>
-    <definedName name="NorthPrice">OFFSET([1]NSPort!$F$2,COUNT([1]NSPort!$A:$A),0,-COUNT([1]NSPort!$A:$A),1)</definedName>
-    <definedName name="PortWeekTS">OFFSET([1]NSPort!$A$2,COUNT([1]NSPort!$A:$A),0,-COUNT([1]NSPort!$A:$A),1)</definedName>
+    <definedName name="NorthCarryout">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
+    <definedName name="NorthCarryoutChange">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
+    <definedName name="NorthPrice">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
+    <definedName name="PortWeekTS">OFFSET(#REF!,COUNT(#REF!),0,-COUNT(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -50,7 +37,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温氏</t>
@@ -99,33 +85,29 @@
   </si>
   <si>
     <t>力源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新天地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,19 +115,155 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,25 +272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,10 +300,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -222,696 +517,345 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="prices"/>
-      <sheetName val="summarize"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="summarize2"/>
-      <sheetName val="NSPort"/>
-      <sheetName val="饲料厂库存"/>
-      <sheetName val="种植成本"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>周五价格</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>结转库存</v>
-          </cell>
-          <cell r="W2" t="str">
-            <v>周度变化</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>42722</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>42729</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>42736</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>42743</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>42750</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>42772</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>42779</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>42786</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>42797</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>42808</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>42821</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>42832</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>42839</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>42846</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>42853</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>42860</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>42867</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>42874</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>42881</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>42888</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>42895</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>42902</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>42909</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>42916</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>42923</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>42930</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>42937</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>42944</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>42951</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>42958</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>42965</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>42972</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>42979</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>42986</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>42993</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>43000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>43021</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>43028</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>43035</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>43042</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>43049</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43056</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>43063</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>43070</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>43077</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>43084</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>43091</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>43098</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>43105</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>43112</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>43119</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>43126</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>43133</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>43140</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>43147</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>43154</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>43161</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>43168</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>43175</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>43182</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>43189</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>43196</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>43203</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>43210</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>43224</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>43231</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>43238</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>43245</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>43252</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>43259</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>43266</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>43273</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>43280</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>43287</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>43294</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>43301</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>43308</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>43315</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>43322</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>43329</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>43336</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>43343</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>43350</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>43357</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>43364</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>43371</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>43378</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>43385</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>43392</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>43399</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>43406</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>43413</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>43420</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>43427</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>43434</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>43441</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>43448</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>43455</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>43462</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>43469</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>43476</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>43483</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>43490</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>43504</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>43511</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>43518</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>43525</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>43532</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>43539</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>43546</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>43553</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>43560</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>43567</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>43574</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>43581</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>43588</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>43595</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,7 +936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,44 +1110,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="$A39:$XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1221,78 +1161,78 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="S1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+    <row r="2" ht="14.25" spans="1:20">
+      <c r="A2" s="6">
         <v>43346</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="6">
         <v>43353</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="2">
         <v>115</v>
       </c>
       <c r="C3" s="1">
@@ -1338,11 +1278,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+    <row r="4" spans="1:23">
+      <c r="A4" s="6">
         <v>43360</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="2">
         <v>115</v>
       </c>
       <c r="C4" s="1">
@@ -1388,11 +1328,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+    <row r="5" spans="1:23">
+      <c r="A5" s="6">
         <v>43367</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="2">
         <v>115</v>
       </c>
       <c r="C5" s="1">
@@ -1438,11 +1378,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+    <row r="6" spans="1:23">
+      <c r="A6" s="6">
         <v>43379</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="2">
         <v>115</v>
       </c>
       <c r="C6" s="1">
@@ -1488,11 +1428,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
         <v>43384</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="2">
         <v>115</v>
       </c>
       <c r="C7" s="1">
@@ -1517,11 +1457,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="8" spans="1:23">
+      <c r="A8" s="6">
         <v>43391</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="2">
         <v>115</v>
       </c>
       <c r="C8" s="1">
@@ -1588,11 +1528,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+    <row r="9" spans="1:23">
+      <c r="A9" s="6">
         <v>43397</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="2">
         <v>115</v>
       </c>
       <c r="C9" s="1">
@@ -1659,11 +1599,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+    <row r="10" spans="1:23">
+      <c r="A10" s="6">
         <v>43404</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="2">
         <v>95</v>
       </c>
       <c r="C10" s="1">
@@ -1730,11 +1670,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row r="11" spans="1:23">
+      <c r="A11" s="6">
         <v>43411</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="2">
         <v>95</v>
       </c>
       <c r="C11" s="1">
@@ -1801,11 +1741,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+    <row r="12" spans="1:23">
+      <c r="A12" s="6">
         <v>43418</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="2">
         <v>95</v>
       </c>
       <c r="C12" s="1">
@@ -1872,11 +1812,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="13" spans="1:23">
+      <c r="A13" s="6">
         <v>43425</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="2">
         <v>95</v>
       </c>
       <c r="C13" s="1">
@@ -1943,11 +1883,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+    <row r="14" spans="1:23">
+      <c r="A14" s="6">
         <v>43432</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="2">
         <v>75</v>
       </c>
       <c r="C14" s="1">
@@ -2014,11 +1954,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row r="15" spans="1:23">
+      <c r="A15" s="6">
         <v>43439</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="2">
         <v>75</v>
       </c>
       <c r="C15" s="1">
@@ -2085,11 +2025,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+    <row r="16" spans="1:23">
+      <c r="A16" s="6">
         <v>43446</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="2">
         <v>75</v>
       </c>
       <c r="C16" s="1">
@@ -2156,11 +2096,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+    <row r="17" spans="1:23">
+      <c r="A17" s="6">
         <v>43453</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="2">
         <v>75</v>
       </c>
       <c r="C17" s="1">
@@ -2227,11 +2167,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+    <row r="18" spans="1:23">
+      <c r="A18" s="6">
         <v>43460</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="2">
         <v>75</v>
       </c>
       <c r="C18" s="1">
@@ -2298,11 +2238,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row r="19" spans="1:23">
+      <c r="A19" s="6">
         <v>43467</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="2">
         <v>75</v>
       </c>
       <c r="C19" s="1">
@@ -2369,11 +2309,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row r="20" spans="1:23">
+      <c r="A20" s="6">
         <v>43474</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="2">
         <v>75</v>
       </c>
       <c r="C20" s="1">
@@ -2440,11 +2380,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+    <row r="21" spans="1:23">
+      <c r="A21" s="6">
         <v>43481</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="2">
         <v>70</v>
       </c>
       <c r="C21" s="1">
@@ -2511,11 +2451,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row r="22" spans="1:23">
+      <c r="A22" s="6">
         <v>43488</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="2">
         <v>55</v>
       </c>
       <c r="C22" s="1">
@@ -2582,11 +2522,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="23" spans="1:23">
+      <c r="A23" s="6">
         <v>43495</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="2">
         <v>55</v>
       </c>
       <c r="C23" s="1">
@@ -2653,11 +2593,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+    <row r="24" spans="1:23">
+      <c r="A24" s="6">
         <v>43506</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="2">
         <v>35</v>
       </c>
       <c r="C24" s="1">
@@ -2724,11 +2664,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+    <row r="25" spans="1:23">
+      <c r="A25" s="6">
         <v>43516</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="2">
         <v>30</v>
       </c>
       <c r="C25" s="1">
@@ -2795,11 +2735,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+    <row r="26" spans="1:23">
+      <c r="A26" s="6">
         <v>43523</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="2">
         <v>30</v>
       </c>
       <c r="C26" s="1">
@@ -2866,11 +2806,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+    <row r="27" spans="1:23">
+      <c r="A27" s="6">
         <v>43530</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="2">
         <v>30</v>
       </c>
       <c r="C27" s="1">
@@ -2937,11 +2877,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+    <row r="28" spans="1:23">
+      <c r="A28" s="6">
         <v>43544</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="2">
         <v>30</v>
       </c>
       <c r="C28" s="1">
@@ -3008,11 +2948,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+    <row r="29" spans="1:23">
+      <c r="A29" s="6">
         <v>43551</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="2">
         <v>30</v>
       </c>
       <c r="C29" s="1">
@@ -3079,11 +3019,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+    <row r="30" spans="1:23">
+      <c r="A30" s="6">
         <v>43557</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="2">
         <v>30</v>
       </c>
       <c r="C30" s="1">
@@ -3150,11 +3090,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+    <row r="31" spans="1:23">
+      <c r="A31" s="6">
         <v>43565</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
       <c r="C31" s="1">
@@ -3221,11 +3161,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+    <row r="32" spans="1:23">
+      <c r="A32" s="6">
         <v>43593</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="2">
         <v>45</v>
       </c>
       <c r="C32" s="1">
@@ -3292,11 +3232,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
+    <row r="33" spans="1:23">
+      <c r="A33" s="6">
         <v>43600</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="2">
         <v>45</v>
       </c>
       <c r="C33" s="1">
@@ -3363,9 +3303,435 @@
         <v>15</v>
       </c>
     </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="6">
+        <v>43628</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40</v>
+      </c>
+      <c r="H34" s="1">
+        <v>35</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40</v>
+      </c>
+      <c r="J34" s="1">
+        <v>40</v>
+      </c>
+      <c r="K34" s="1">
+        <v>40</v>
+      </c>
+      <c r="L34" s="1">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1">
+        <v>35</v>
+      </c>
+      <c r="N34" s="1">
+        <v>40</v>
+      </c>
+      <c r="O34" s="1">
+        <v>50</v>
+      </c>
+      <c r="P34" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>25</v>
+      </c>
+      <c r="R34" s="1">
+        <v>10</v>
+      </c>
+      <c r="S34" s="1">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1">
+        <v>20</v>
+      </c>
+      <c r="U34" s="1">
+        <v>30</v>
+      </c>
+      <c r="V34" s="1">
+        <v>20</v>
+      </c>
+      <c r="W34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="6">
+        <v>43642</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40</v>
+      </c>
+      <c r="J35" s="1">
+        <v>40</v>
+      </c>
+      <c r="K35" s="1">
+        <v>40</v>
+      </c>
+      <c r="L35" s="1">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1">
+        <v>35</v>
+      </c>
+      <c r="N35" s="1">
+        <v>40</v>
+      </c>
+      <c r="O35" s="1">
+        <v>50</v>
+      </c>
+      <c r="P35" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>25</v>
+      </c>
+      <c r="R35" s="1">
+        <v>10</v>
+      </c>
+      <c r="S35" s="1">
+        <v>10</v>
+      </c>
+      <c r="T35" s="1">
+        <v>20</v>
+      </c>
+      <c r="U35" s="1">
+        <v>30</v>
+      </c>
+      <c r="V35" s="1">
+        <v>20</v>
+      </c>
+      <c r="W35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="6">
+        <v>43649</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40</v>
+      </c>
+      <c r="J36" s="1">
+        <v>40</v>
+      </c>
+      <c r="K36" s="1">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1">
+        <v>35</v>
+      </c>
+      <c r="M36" s="1">
+        <v>35</v>
+      </c>
+      <c r="N36" s="1">
+        <v>40</v>
+      </c>
+      <c r="O36" s="1">
+        <v>50</v>
+      </c>
+      <c r="P36" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>25</v>
+      </c>
+      <c r="R36" s="1">
+        <v>10</v>
+      </c>
+      <c r="S36" s="1">
+        <v>10</v>
+      </c>
+      <c r="T36" s="1">
+        <v>20</v>
+      </c>
+      <c r="U36" s="1">
+        <v>30</v>
+      </c>
+      <c r="V36" s="1">
+        <v>20</v>
+      </c>
+      <c r="W36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="6">
+        <v>43670</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>40</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40</v>
+      </c>
+      <c r="J37" s="1">
+        <v>40</v>
+      </c>
+      <c r="K37" s="1">
+        <v>40</v>
+      </c>
+      <c r="L37" s="1">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1">
+        <v>40</v>
+      </c>
+      <c r="O37" s="1">
+        <v>50</v>
+      </c>
+      <c r="P37" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>25</v>
+      </c>
+      <c r="R37" s="1">
+        <v>10</v>
+      </c>
+      <c r="S37" s="1">
+        <v>10</v>
+      </c>
+      <c r="T37" s="1">
+        <v>20</v>
+      </c>
+      <c r="U37" s="1">
+        <v>30</v>
+      </c>
+      <c r="V37" s="1">
+        <v>20</v>
+      </c>
+      <c r="W37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="6">
+        <v>43685</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40</v>
+      </c>
+      <c r="H38" s="1">
+        <v>35</v>
+      </c>
+      <c r="I38" s="1">
+        <v>40</v>
+      </c>
+      <c r="J38" s="1">
+        <v>40</v>
+      </c>
+      <c r="K38" s="1">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1">
+        <v>35</v>
+      </c>
+      <c r="M38" s="1">
+        <v>35</v>
+      </c>
+      <c r="N38" s="1">
+        <v>40</v>
+      </c>
+      <c r="O38" s="1">
+        <v>50</v>
+      </c>
+      <c r="P38" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>25</v>
+      </c>
+      <c r="R38" s="1">
+        <v>10</v>
+      </c>
+      <c r="S38" s="1">
+        <v>10</v>
+      </c>
+      <c r="T38" s="1">
+        <v>20</v>
+      </c>
+      <c r="U38" s="1">
+        <v>30</v>
+      </c>
+      <c r="V38" s="1">
+        <v>20</v>
+      </c>
+      <c r="W38" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="6">
+        <v>43719</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1">
+        <v>35</v>
+      </c>
+      <c r="I39" s="1">
+        <v>40</v>
+      </c>
+      <c r="J39" s="1">
+        <v>40</v>
+      </c>
+      <c r="K39" s="1">
+        <v>40</v>
+      </c>
+      <c r="L39" s="1">
+        <v>35</v>
+      </c>
+      <c r="M39" s="1">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1">
+        <v>40</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45</v>
+      </c>
+      <c r="P39" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>25</v>
+      </c>
+      <c r="R39" s="1">
+        <v>10</v>
+      </c>
+      <c r="S39" s="1">
+        <v>10</v>
+      </c>
+      <c r="T39" s="1">
+        <v>20</v>
+      </c>
+      <c r="U39" s="1">
+        <v>30</v>
+      </c>
+      <c r="V39" s="1">
+        <v>20</v>
+      </c>
+      <c r="W39" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/FeedFactoryInventories.xlsx
+++ b/database/FeedFactoryInventories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="feedfactory" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,15 +120,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,8 +200,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,56 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,25 +248,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,7 +302,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,25 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,115 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,11 +517,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,34 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +601,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,14 +1116,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="$A39:$XFD39"/>
+      <selection pane="bottomRight" activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3729,6 +3729,77 @@
         <v>15</v>
       </c>
     </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="6">
+        <v>43755</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>30</v>
+      </c>
+      <c r="H40" s="1">
+        <v>35</v>
+      </c>
+      <c r="I40" s="1">
+        <v>40</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40</v>
+      </c>
+      <c r="K40" s="1">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1">
+        <v>35</v>
+      </c>
+      <c r="M40" s="1">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1">
+        <v>40</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45</v>
+      </c>
+      <c r="P40" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>25</v>
+      </c>
+      <c r="R40" s="1">
+        <v>10</v>
+      </c>
+      <c r="S40" s="1">
+        <v>10</v>
+      </c>
+      <c r="T40" s="1">
+        <v>20</v>
+      </c>
+      <c r="U40" s="1">
+        <v>30</v>
+      </c>
+      <c r="V40" s="1">
+        <v>20</v>
+      </c>
+      <c r="W40" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
